--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/88.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/88.xlsx
@@ -479,13 +479,13 @@
         <v>-0.02866602223567616</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.66898194177728</v>
+        <v>-1.669311698783192</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.2069102084217397</v>
+        <v>-0.2068755800010711</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.3162746309888328</v>
+        <v>-0.3156355792255848</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.01007912283151402</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.811767512346951</v>
+        <v>-1.811741541031449</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.192301736956948</v>
+        <v>-0.1923505315497084</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.3183413180951006</v>
+        <v>-0.3175763448021485</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.006556436613509965</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.992281534244638</v>
+        <v>-1.991766829991973</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2669983883773935</v>
+        <v>-0.266907095268358</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.3499208637257563</v>
+        <v>-0.3492849600007509</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.01580755679794396</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.020730355843027</v>
+        <v>-2.020061397716474</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2402007128372493</v>
+        <v>-0.2402117309710984</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.3541534011429339</v>
+        <v>-0.3534057420603161</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.02003769364739971</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.958768306123464</v>
+        <v>-1.957765655943196</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1918011988763744</v>
+        <v>-0.1924276584866521</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.3676978356817263</v>
+        <v>-0.3668179589929192</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.01925679697152955</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.712469729070136</v>
+        <v>-1.711280557623993</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1684443291353935</v>
+        <v>-0.1683876644470267</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.3857738712707434</v>
+        <v>-0.384730296593321</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.01097615457750655</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.492940495212769</v>
+        <v>-1.490458267058477</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.05010799757688652</v>
+        <v>-0.05038345092311414</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.3688279814108202</v>
+        <v>-0.3678930140527676</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.003334910837525142</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.211173758289611</v>
+        <v>-1.208621486284422</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.00143145625066275</v>
+        <v>-0.001302386682716094</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.3194384094226472</v>
+        <v>-0.3189221311508606</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.01292326179556546</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.031581324587445</v>
+        <v>-1.028315234910746</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1467293896182497</v>
+        <v>0.1462682020157086</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.3142882188577514</v>
+        <v>-0.3134555627425833</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.004559722497125736</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.8027929232490263</v>
+        <v>-0.7995630360121173</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1743549992161981</v>
+        <v>0.173664004821947</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.3008004490073258</v>
+        <v>-0.3000150134657967</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.03421025671763017</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.5782134490409655</v>
+        <v>-0.5746640359224324</v>
       </c>
       <c r="F12" t="n">
-        <v>0.169119811618752</v>
+        <v>0.168104569285513</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.253605059674246</v>
+        <v>-0.252977026044847</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.1113911134735001</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.375794590041697</v>
+        <v>-0.3707089342607745</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.008697128514586724</v>
+        <v>-0.00969348261837006</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.2023345348361186</v>
+        <v>-0.2019394560366722</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.2278737742306362</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.06708536781923574</v>
+        <v>-0.0624136790672153</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1255853624814971</v>
+        <v>-0.1265140337630645</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.09216421447891959</v>
+        <v>-0.09198320227997002</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.3772459874323549</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3249209463024579</v>
+        <v>0.3307007445158741</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.4032187251921189</v>
+        <v>-0.4043535929785767</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03951665118997464</v>
+        <v>0.03920814344219971</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.5428248513284981</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6797646689702425</v>
+        <v>0.686232313539667</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6071864190067472</v>
+        <v>-0.6081402745942555</v>
       </c>
       <c r="G16" t="n">
-        <v>0.07852241903492699</v>
+        <v>0.07862473027781153</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.7110868282874629</v>
       </c>
       <c r="E17" t="n">
-        <v>1.172434227956479</v>
+        <v>1.178988443577575</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.7165728778415386</v>
+        <v>-0.7183719816971852</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1407386728425793</v>
+        <v>0.1405261802612037</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.8826728050987895</v>
       </c>
       <c r="E18" t="n">
-        <v>1.52573698590451</v>
+        <v>1.531915010955615</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.9101048248819433</v>
+        <v>-0.9120054529709138</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1920910466750142</v>
+        <v>0.1921461373442597</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.061620538978126</v>
       </c>
       <c r="E19" t="n">
-        <v>1.892610936716396</v>
+        <v>1.898027136512791</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.014542567599365</v>
+        <v>-1.016958686950562</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2567407340441973</v>
+        <v>0.2567029575852862</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.245057322940797</v>
       </c>
       <c r="E20" t="n">
-        <v>2.203917290489003</v>
+        <v>2.209999300373709</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.229101049071665</v>
+        <v>-1.231440828495479</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3256512911747415</v>
+        <v>0.3263611737984481</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.422064920375118</v>
       </c>
       <c r="E21" t="n">
-        <v>2.466049712893056</v>
+        <v>2.4715729459897</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.257673431171076</v>
+        <v>-1.261076460511328</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4526510239768874</v>
+        <v>0.4529280513422364</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.585637190188656</v>
       </c>
       <c r="E22" t="n">
-        <v>2.688384635834142</v>
+        <v>2.693328629894147</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.366224872862017</v>
+        <v>-1.369996222676654</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4514327331770007</v>
+        <v>0.4520056761371542</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.734736549933679</v>
       </c>
       <c r="E23" t="n">
-        <v>2.762174652240718</v>
+        <v>2.768025281314593</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.474995103210819</v>
+        <v>-1.478786128264472</v>
       </c>
       <c r="G23" t="n">
-        <v>0.549632638116708</v>
+        <v>0.5501866928474058</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.867411012486485</v>
       </c>
       <c r="E24" t="n">
-        <v>2.890114074458281</v>
+        <v>2.895165101818534</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.621355271204964</v>
+        <v>-1.624123183829771</v>
       </c>
       <c r="G24" t="n">
-        <v>0.590248627522751</v>
+        <v>0.5908640689991795</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.982070218383249</v>
       </c>
       <c r="E25" t="n">
-        <v>2.900612781997356</v>
+        <v>2.905087718359214</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.566296082341866</v>
+        <v>-1.569251303242108</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6436141718113295</v>
+        <v>0.6445333989781691</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.07529199823274</v>
       </c>
       <c r="E26" t="n">
-        <v>2.886275041821428</v>
+        <v>2.891167093250431</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.478132123319572</v>
+        <v>-1.48202624662567</v>
       </c>
       <c r="G26" t="n">
-        <v>0.582746852390632</v>
+        <v>0.5839147745786371</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.146027557492928</v>
       </c>
       <c r="E27" t="n">
-        <v>2.962016841938417</v>
+        <v>2.965914113282758</v>
       </c>
       <c r="F27" t="n">
-        <v>-1.522768157561416</v>
+        <v>-1.5263065525461</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6134890198487557</v>
+        <v>0.6144255612259295</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.19581615807239</v>
       </c>
       <c r="E28" t="n">
-        <v>2.902789650442115</v>
+        <v>2.90654683408466</v>
       </c>
       <c r="F28" t="n">
-        <v>-1.476880778118138</v>
+        <v>-1.480142932747033</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6313840432388231</v>
+        <v>0.6324260438971242</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.225170259960332</v>
       </c>
       <c r="E29" t="n">
-        <v>2.766163216694094</v>
+        <v>2.770993881377366</v>
       </c>
       <c r="F29" t="n">
-        <v>-1.636482381970224</v>
+        <v>-1.638572679363311</v>
       </c>
       <c r="G29" t="n">
-        <v>0.6012447251041576</v>
+        <v>0.6022221909784853</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.237028085813535</v>
       </c>
       <c r="E30" t="n">
-        <v>2.726982732726677</v>
+        <v>2.730283450824045</v>
       </c>
       <c r="F30" t="n">
-        <v>-1.622551525737152</v>
+        <v>-1.624407294281166</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5517182134524314</v>
+        <v>0.5529396522905607</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.231620604294141</v>
       </c>
       <c r="E31" t="n">
-        <v>2.614163338188329</v>
+        <v>2.617342856813357</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.664235487116998</v>
+        <v>-1.665578912437028</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5467773674306686</v>
+        <v>0.5477312230181768</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>2.209508001071045</v>
       </c>
       <c r="E32" t="n">
-        <v>2.574880542978028</v>
+        <v>2.578241073802005</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.711756698408187</v>
+        <v>-1.712828605429793</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5384208999156832</v>
+        <v>0.5392220756484253</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>2.172603208040289</v>
       </c>
       <c r="E33" t="n">
-        <v>2.399758323580356</v>
+        <v>2.402857567230197</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.70517729848115</v>
+        <v>-1.706309805238926</v>
       </c>
       <c r="G33" t="n">
-        <v>0.5342780815884198</v>
+        <v>0.5353547106673895</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>2.121423049482448</v>
       </c>
       <c r="E34" t="n">
-        <v>2.225522276947976</v>
+        <v>2.229016599397264</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.69561749334793</v>
+        <v>-1.697182855364064</v>
       </c>
       <c r="G34" t="n">
-        <v>0.4762723289302469</v>
+        <v>0.4770294321275925</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>2.059248096949925</v>
       </c>
       <c r="E35" t="n">
-        <v>2.072551228644369</v>
+        <v>2.076417019606283</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.738753487367175</v>
+        <v>-1.739570403291131</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4136279419216008</v>
+        <v>0.4142323652641803</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.987687209242102</v>
       </c>
       <c r="E36" t="n">
-        <v>1.923146907669629</v>
+        <v>1.926647526195402</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.60271494976096</v>
+        <v>-1.604573866343217</v>
       </c>
       <c r="G36" t="n">
-        <v>0.4168672732732376</v>
+        <v>0.4175472495336395</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.908352383113158</v>
       </c>
       <c r="E37" t="n">
-        <v>1.721485151867706</v>
+        <v>1.725645284405304</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.588075784923303</v>
+        <v>-1.59005668798746</v>
       </c>
       <c r="G37" t="n">
-        <v>0.3318670926847579</v>
+        <v>0.3334867583605763</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.823255487935948</v>
       </c>
       <c r="E38" t="n">
-        <v>1.603836666665208</v>
+        <v>1.608081796235356</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.484258205739674</v>
+        <v>-1.486538959446439</v>
       </c>
       <c r="G38" t="n">
-        <v>0.2853390874591096</v>
+        <v>0.2868249615096174</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.731758402527194</v>
       </c>
       <c r="E39" t="n">
-        <v>1.430387629593478</v>
+        <v>1.435053022269013</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.444869951248245</v>
+        <v>-1.447581986194246</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2717820607673467</v>
+        <v>0.2732081220912452</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.635156724887342</v>
       </c>
       <c r="E40" t="n">
-        <v>1.198964320246002</v>
+        <v>1.204331725449638</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.521092614206792</v>
+        <v>-1.52316008832262</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2951420785465703</v>
+        <v>0.2959385322219484</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.534354978274392</v>
       </c>
       <c r="E41" t="n">
-        <v>1.118722399461214</v>
+        <v>1.123600284718125</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.460420473157136</v>
+        <v>-1.462590258515849</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1955035201299941</v>
+        <v>0.1963109919392214</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>1.430032969197727</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9835708216298521</v>
+        <v>0.9881008486609555</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.339706585715904</v>
+        <v>-1.342689351950769</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1556556520551459</v>
+        <v>0.1566693203692635</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>1.324610424397957</v>
       </c>
       <c r="E43" t="n">
-        <v>0.8979677917179142</v>
+        <v>0.9023404168368875</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.277222748657631</v>
+        <v>-1.27975062336644</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1150695690124077</v>
+        <v>0.1158943550319692</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>1.217347643077892</v>
       </c>
       <c r="E44" t="n">
-        <v>0.7255324229603025</v>
+        <v>0.7304842871159145</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.202526097237185</v>
+        <v>-1.205685153613635</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0996048311456284</v>
+        <v>0.1004595235284947</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>1.109474515125459</v>
       </c>
       <c r="E45" t="n">
-        <v>0.5679699608798611</v>
+        <v>0.5728210878117098</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.174370043195358</v>
+        <v>-1.176714544676536</v>
       </c>
       <c r="G45" t="n">
-        <v>0.08591558684767632</v>
+        <v>0.08638936660318783</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>1.001940125691223</v>
       </c>
       <c r="E46" t="n">
-        <v>0.3960902208720686</v>
+        <v>0.4009397737847959</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.031470356239393</v>
+        <v>-1.034272897284869</v>
       </c>
       <c r="G46" t="n">
-        <v>0.01113079035643804</v>
+        <v>0.01174623183286661</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.8959595063791993</v>
       </c>
       <c r="E47" t="n">
-        <v>0.3209654362506293</v>
+        <v>0.3253538015608157</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.056265879457243</v>
+        <v>-1.057906794391199</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.02765933686889611</v>
+        <v>-0.02704074735422494</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.795892279921055</v>
       </c>
       <c r="E48" t="n">
-        <v>0.1862797680791721</v>
+        <v>0.1905154535345922</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.9258890886303466</v>
+        <v>-0.9283602986507887</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.01297531248628199</v>
+        <v>-0.01347270252861301</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.7039130823408034</v>
       </c>
       <c r="E49" t="n">
-        <v>0.1842665976230285</v>
+        <v>0.1880285033229371</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.8976433154986058</v>
+        <v>-0.9001003593469561</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.09695710270328019</v>
+        <v>-0.09620629558241976</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.6213706615379989</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004359360096602481</v>
+        <v>0.008876794974735454</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.8382862674247962</v>
+        <v>-0.8407425242635859</v>
       </c>
       <c r="G50" t="n">
-        <v>-0.1041771284126864</v>
+        <v>-0.1035128923434976</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.548123454638738</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0001787653104278536</v>
+        <v>0.003533000057919619</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.935643285125047</v>
+        <v>-0.9371551304910563</v>
       </c>
       <c r="G51" t="n">
-        <v>-0.1478624551052657</v>
+        <v>-0.1470219288944912</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.4810880642115177</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.04940441102966511</v>
+        <v>-0.04657275063044518</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.8970388921560263</v>
+        <v>-0.8987915624475946</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.1557781972662869</v>
+        <v>-0.1552619189945003</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.4185793901588041</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.114403530643777</v>
+        <v>-0.1116977917742611</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.8517512139979629</v>
+        <v>-0.8536486940486909</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.1923253472437676</v>
+        <v>-0.1916422229451231</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.3586493938469561</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.2185154514030897</v>
+        <v>-0.2154209298106126</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.8579119248387338</v>
+        <v>-0.8596968625222888</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.2435769838524393</v>
+        <v>-0.2429662644333746</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.3005311355899126</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.3011357150801628</v>
+        <v>-0.297817682772461</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.8386065803159809</v>
+        <v>-0.8406063716095934</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.2318127649398379</v>
+        <v>-0.232111828572885</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.2444426768564677</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.3321202814829669</v>
+        <v>-0.3295058357224864</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.8243223567901772</v>
+        <v>-0.8262914547109242</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.2353417158097941</v>
+        <v>-0.2354928216454389</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.1898486746078349</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.3881286038762092</v>
+        <v>-0.3850938950103415</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.8248622453487833</v>
+        <v>-0.8269084702064742</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.3507283355349836</v>
+        <v>-0.350369459175327</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.1372970108378852</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.4073190450031072</v>
+        <v>-0.4045188649863133</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.7281639546507968</v>
+        <v>-0.7303030466366445</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.3602621693527018</v>
+        <v>-0.3598497763429211</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.08602537984576294</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.5210985912054488</v>
+        <v>-0.5180890666455218</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.7252787776014527</v>
+        <v>-0.7276901748952853</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.4139047410066293</v>
+        <v>-0.4133884627348426</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.03591314797553499</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.5374951483920379</v>
+        <v>-0.534715430623821</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.7140607433239426</v>
+        <v>-0.7164438082735919</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.4153780229041668</v>
+        <v>-0.4153197841966786</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.01208685581165215</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.549210572711879</v>
+        <v>-0.5470856468981231</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.726002826397251</v>
+        <v>-0.7284944986662699</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.4561954867577362</v>
+        <v>-0.455927903507115</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.0572823277032839</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.6590834034551523</v>
+        <v>-0.6565051601344617</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.7654981141889278</v>
+        <v>-0.7682400554982336</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.4898495895902662</v>
+        <v>-0.4896780215060444</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.09820552652579292</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.7384328553981625</v>
+        <v>-0.7361536757105192</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.7799444616842255</v>
+        <v>-0.7827257534715638</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.5508664408274874</v>
+        <v>-0.5503312743262451</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.1339206383534744</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.7667132569505719</v>
+        <v>-0.764703234532671</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.8289562690832863</v>
+        <v>-0.831189802216412</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.5429270883796466</v>
+        <v>-0.5427004296261794</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.1638505202030301</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.8245175351612184</v>
+        <v>-0.8220856756188089</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.8419277606619253</v>
+        <v>-0.8444076277875345</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.580634290449526</v>
+        <v>-0.5802958763384463</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.187641971103379</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.8532150517807725</v>
+        <v>-0.85067064987119</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.9472902396131114</v>
+        <v>-0.9495867335110891</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.6663553717955614</v>
+        <v>-0.6657257641470411</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.206030580956743</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.9815589969125094</v>
+        <v>-0.9788359438326591</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.9110586804694515</v>
+        <v>-0.9134063299888715</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.6649214403760565</v>
+        <v>-0.6645546939207934</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.2196345105356261</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.029668104345504</v>
+        <v>-1.027233096764852</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.9955575359677969</v>
+        <v>-0.9977776899383917</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.7270117726540047</v>
+        <v>-0.7261665243858663</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.2304863270772335</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.062340019246343</v>
+        <v>-1.059261237845079</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.9604207071230018</v>
+        <v>-0.9629729791281908</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.7561956611820407</v>
+        <v>-0.7553441168374171</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.2402673916304497</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.215455090299549</v>
+        <v>-1.21132958618262</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.9580368551637919</v>
+        <v>-0.9599996570080538</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.7786096934693626</v>
+        <v>-0.777670004053946</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.2504454901883437</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.219836372523689</v>
+        <v>-1.215595178001345</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.9999702985743635</v>
+        <v>-1.001933100418625</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.8085853136154129</v>
+        <v>-0.8072788777447333</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.2609953606145686</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.197505763249797</v>
+        <v>-1.192995411457709</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.090089189345313</v>
+        <v>-1.091705706982889</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.771293652593557</v>
+        <v>-0.7701698029409483</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.2696979501576356</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.155005672955557</v>
+        <v>-1.150128574708206</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.159420009581244</v>
+        <v>-1.160350254881933</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.7609208665841855</v>
+        <v>-0.759699427746056</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.2744310103567631</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.158411850334051</v>
+        <v>-1.153462347207121</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.152634413149317</v>
+        <v>-1.153278186969929</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.7692883522330198</v>
+        <v>-0.7671665744575066</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.2732586439736724</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.081386437623642</v>
+        <v>-1.07605995691716</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.182050469497745</v>
+        <v>-1.183428523238444</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.784291902497258</v>
+        <v>-0.7821370703201974</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.2651369207852854</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.9917995653156916</v>
+        <v>-0.9862897113815785</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.265293257737293</v>
+        <v>-1.266066101125851</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.7258517205616061</v>
+        <v>-0.7241958524459978</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.2485205182625455</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.8804975252102774</v>
+        <v>-0.8755102456244361</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.212751712458715</v>
+        <v>-1.213807092279547</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.7387303450120883</v>
+        <v>-0.7363598722154094</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.2226616177635765</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.7904132628599964</v>
+        <v>-0.7851686311478225</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.214701135140446</v>
+        <v>-1.21574707084655</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.6984039751243647</v>
+        <v>-0.6960335023276859</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.1879083409944887</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.6693286939156984</v>
+        <v>-0.6641973915802581</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.280245652380088</v>
+        <v>-1.28096183108028</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.6752832082515789</v>
+        <v>-0.6730591192331811</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.1455123139227613</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.495224864889508</v>
+        <v>-0.4895080274409439</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.194500173737673</v>
+        <v>-1.195836515971657</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.6927973190142916</v>
+        <v>-0.6902757403819679</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.09770995609528149</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.2696569066732704</v>
+        <v>-0.2650560487817085</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.209334516946371</v>
+        <v>-1.210369434518626</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.6235514958109105</v>
+        <v>-0.62136046119406</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.0459192550209925</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.1009047426595023</v>
+        <v>-0.09634166122685162</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.216722175692196</v>
+        <v>-1.218151385054337</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.4888705496968171</v>
+        <v>-0.4874397663155548</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.007752068193242003</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0883820748107545</v>
+        <v>0.09332134681339606</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.132291003016066</v>
+        <v>-1.133887845414626</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.4467545200681746</v>
+        <v>-0.4454732685034359</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.06147397728044642</v>
       </c>
       <c r="E84" t="n">
-        <v>0.2369206852687791</v>
+        <v>0.2419795827246395</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.104732289230773</v>
+        <v>-1.106848557939362</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.355337063522152</v>
+        <v>-0.3538134130127329</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.1122875197878642</v>
       </c>
       <c r="E85" t="n">
-        <v>0.4490559643038367</v>
+        <v>0.4530350846424848</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.084099259579203</v>
+        <v>-1.08594637101805</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.278255773132936</v>
+        <v>-0.2775081140503182</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.15679609416766</v>
       </c>
       <c r="E86" t="n">
-        <v>0.6071661850384907</v>
+        <v>0.6111216950903194</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.9756642953032383</v>
+        <v>-0.9776034868606807</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.2210134197485939</v>
+        <v>-0.2198187392355267</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.1916284290649533</v>
       </c>
       <c r="E87" t="n">
-        <v>0.8346764828504135</v>
+        <v>0.8381172886495768</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.9300830625790523</v>
+        <v>-0.9316641647863988</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1631792351746427</v>
+        <v>-0.1617878022714129</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.2146604937881907</v>
       </c>
       <c r="E88" t="n">
-        <v>0.9434821286294448</v>
+        <v>0.94670729380899</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.7552795820534438</v>
+        <v>-0.7570487795457858</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.09859093455119031</v>
+        <v>-0.09787475585099849</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.2245889511001251</v>
       </c>
       <c r="E89" t="n">
-        <v>1.188974020883107</v>
+        <v>1.192096874819767</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.5976352709786946</v>
+        <v>-0.5992691028266048</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02602258526306385</v>
+        <v>0.02624452195916724</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.2216432520849818</v>
       </c>
       <c r="E90" t="n">
-        <v>1.360150174343678</v>
+        <v>1.362819710773404</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.5246464303048605</v>
+        <v>-0.5264534042561136</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04773932707964944</v>
+        <v>0.04776451138559025</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.2072193550156174</v>
       </c>
       <c r="E91" t="n">
-        <v>1.441911023580521</v>
+        <v>1.444456212499664</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.305868790577914</v>
+        <v>-0.3078205742883268</v>
       </c>
       <c r="G91" t="n">
-        <v>0.07775114966548966</v>
+        <v>0.07780151827737128</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.1818328161507495</v>
       </c>
       <c r="E92" t="n">
-        <v>1.583264236749808</v>
+        <v>1.585071210701061</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.2175663178729454</v>
+        <v>-0.2187373880991931</v>
       </c>
       <c r="G92" t="n">
-        <v>0.09066125449839789</v>
+        <v>0.09079189808546585</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.1462890229068165</v>
       </c>
       <c r="E93" t="n">
-        <v>1.595045769872743</v>
+        <v>1.596937740856547</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.01178220599233607</v>
+        <v>-0.01339085353430538</v>
       </c>
       <c r="G93" t="n">
-        <v>0.1178571568762312</v>
+        <v>0.1177548456333466</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.1029633884733101</v>
       </c>
       <c r="E94" t="n">
-        <v>1.544713360430911</v>
+        <v>1.54649042801886</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1455331350860612</v>
+        <v>0.1442581795978076</v>
       </c>
       <c r="G94" t="n">
-        <v>0.1321618426506118</v>
+        <v>0.131801392271834</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.05520656962098981</v>
       </c>
       <c r="E95" t="n">
-        <v>1.538870601452643</v>
+        <v>1.540191203495414</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1984060113896726</v>
+        <v>0.1974379896300726</v>
       </c>
       <c r="G95" t="n">
-        <v>0.1437875478805387</v>
+        <v>0.1434585778841869</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.006721283307126281</v>
       </c>
       <c r="E96" t="n">
-        <v>1.509565513452267</v>
+        <v>1.510032997131293</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2886382315373558</v>
+        <v>0.2877253004470014</v>
       </c>
       <c r="G96" t="n">
-        <v>0.05197186449682699</v>
+        <v>0.05219537521205168</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.03771611097092106</v>
       </c>
       <c r="E97" t="n">
-        <v>1.352308411081358</v>
+        <v>1.352287948832781</v>
       </c>
       <c r="F97" t="n">
-        <v>0.3042918516986912</v>
+        <v>0.3035536367308011</v>
       </c>
       <c r="G97" t="n">
-        <v>0.03145767328891512</v>
+        <v>0.03143406300209561</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.07592748031389283</v>
       </c>
       <c r="E98" t="n">
-        <v>1.290890184968205</v>
+        <v>1.290458903728968</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2580172635515722</v>
+        <v>0.256838323229718</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02841981638480479</v>
+        <v>0.02826556251091733</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1071485129611059</v>
       </c>
       <c r="E99" t="n">
-        <v>1.187280376308587</v>
+        <v>1.186693267176342</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2295794600870327</v>
+        <v>0.2288916137310243</v>
       </c>
       <c r="G99" t="n">
-        <v>0.06234150246795592</v>
+        <v>0.06208965940854781</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1335819980740422</v>
       </c>
       <c r="E100" t="n">
-        <v>1.070610930999538</v>
+        <v>1.069993915503988</v>
       </c>
       <c r="F100" t="n">
-        <v>0.227282966189055</v>
+        <v>0.2261543944790824</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02567157899901379</v>
+        <v>0.02540714378663528</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.1553532229788351</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9096958081907256</v>
+        <v>0.9089890736052616</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1927458386294753</v>
+        <v>0.1920501221778604</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.01395592639885232</v>
+        <v>-0.01416369692286401</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.1777634190238374</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7399472900731742</v>
+        <v>0.7391807427611008</v>
       </c>
       <c r="F102" t="n">
-        <v>0.155279461485155</v>
+        <v>0.1547143886206081</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.03710345159670024</v>
+        <v>-0.03730335202510542</v>
       </c>
     </row>
   </sheetData>
